--- a/data/ch06/XlsxWriter_insert_textbox_01.xlsx
+++ b/data/ch06/XlsxWriter_insert_textbox_01.xlsx
@@ -19,31 +19,31 @@
     <t>텍스트 상자 삽입(옵션 지정 없음):</t>
   </si>
   <si>
-    <t>텍스트 상자 삽입(위치 옵셋과 크기 조정):</t>
-  </si>
-  <si>
-    <t>{'x_offset':25, 'y_offset':10,</t>
-  </si>
-  <si>
-    <t>'width':240, 'height':100}</t>
+    <t>텍스트 상자 삽입(위치 오프셋과 크기 조정):</t>
+  </si>
+  <si>
+    <t>{'x_offset': 25, 'y_offset': 10,</t>
+  </si>
+  <si>
+    <t>'width': 240, 'height': 100}</t>
   </si>
   <si>
     <t>텍스트 상자 삽입(글꼴, 맞춤 속성 지정):</t>
   </si>
   <si>
-    <t>{'align':{'vertical':'middle', 'horizontal':'center'},</t>
-  </si>
-  <si>
-    <t>'font':{'bold':True, 'size':15}}</t>
+    <t>{'align': {'vertical': 'middle', 'horizontal': 'center'},</t>
+  </si>
+  <si>
+    <t>'font': {'bold': True, 'size': 15}}</t>
   </si>
   <si>
     <t>텍스트 상자 삽입(테두리, 채우기 속성 지정):</t>
   </si>
   <si>
-    <t>{'border':{'color':'black', 'width':2}},</t>
-  </si>
-  <si>
-    <t>'fill':{'color':'blue'}}</t>
+    <t>{'border': {'color': 'black', 'width': 2}},</t>
+  </si>
+  <si>
+    <t>'fill': {'color': 'yellow'}}</t>
   </si>
 </sst>
 </file>
@@ -311,7 +311,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00FF00"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
         <a:ln w="25400" cmpd="sng">
           <a:solidFill>
